--- a/Mifos Automation Excels/Client/2689-RBI-EI-DB-DL-REC-Non-RNI-CTPD-DL-MD-TR-2-DIS-AccCL1stFEB-RunPERON1stFEB-DELETEAccCL-REPAYon1stFEB-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2689-RBI-EI-DB-DL-REC-Non-RNI-CTPD-DL-MD-TR-2-DIS-AccCL1stFEB-RunPERON1stFEB-DELETEAccCL-REPAYon1stFEB-Newcreateloan1.xlsx
@@ -4,25 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="726" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="726" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
-    <sheet name="Repay1" sheetId="15" r:id="rId2"/>
-    <sheet name="CreateAccountClosures" sheetId="7" r:id="rId3"/>
-    <sheet name="Repay2" sheetId="16" r:id="rId4"/>
-    <sheet name="DeleteAccountClosures" sheetId="11" r:id="rId5"/>
-    <sheet name="RunPeriodicAccrual" sheetId="18" r:id="rId6"/>
-    <sheet name="RunPeriodicAccrual1" sheetId="14" r:id="rId7"/>
-    <sheet name="Output" sheetId="17" r:id="rId8"/>
-    <sheet name="Transactions" sheetId="19" r:id="rId9"/>
+    <sheet name="CreateAccountClosures" sheetId="7" r:id="rId2"/>
+    <sheet name="RunPeriodicAccrual" sheetId="18" r:id="rId3"/>
+    <sheet name="Repay1" sheetId="15" r:id="rId4"/>
+    <sheet name="Transactions" sheetId="19" r:id="rId5"/>
+    <sheet name="Repay2" sheetId="16" r:id="rId6"/>
+    <sheet name="DeleteAccountClosures" sheetId="11" r:id="rId7"/>
+    <sheet name="RunPeriodicAccrual1" sheetId="14" r:id="rId8"/>
+    <sheet name="Output" sheetId="17" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>Head Office</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>Disbursement</t>
-  </si>
-  <si>
-    <t>Accrual</t>
   </si>
   <si>
     <t>verifyrepayment</t>
@@ -789,41 +786,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="12">
-        <v>41671</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -873,7 +835,205 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="9">
+        <v>41671</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="12">
+        <v>41671</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>6896</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17">
+        <v>41671</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="14">
+        <v>887.72</v>
+      </c>
+      <c r="F2" s="14">
+        <v>836.76</v>
+      </c>
+      <c r="G2" s="14">
+        <v>50.96</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0</v>
+      </c>
+      <c r="I2" s="14">
+        <v>0</v>
+      </c>
+      <c r="J2" s="19">
+        <v>4163.24</v>
+      </c>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>6894</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="17">
+        <v>41640</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="13">
+        <v>5000</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -915,7 +1075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -955,10 +1115,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -966,50 +1126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="9">
-        <v>41671</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1042,10 +1159,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1053,7 +1170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -1069,162 +1186,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
-        <v>687</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="17">
-        <v>41671</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="14">
-        <v>887.72</v>
-      </c>
-      <c r="F2" s="14">
-        <v>836.76</v>
-      </c>
-      <c r="G2" s="14">
-        <v>50.96</v>
-      </c>
-      <c r="H2" s="14">
-        <v>0</v>
-      </c>
-      <c r="I2" s="14">
-        <v>0</v>
-      </c>
-      <c r="J2" s="19">
-        <v>4163.24</v>
-      </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>435</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="17">
-        <v>41671</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="14">
-        <v>50.96</v>
-      </c>
-      <c r="F3" s="14">
-        <v>0</v>
-      </c>
-      <c r="G3" s="14">
-        <v>50.96</v>
-      </c>
-      <c r="H3" s="14">
-        <v>0</v>
-      </c>
-      <c r="I3" s="14">
-        <v>0</v>
-      </c>
-      <c r="J3" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
-        <v>680</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="17">
-        <v>41640</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="13">
-        <v>5000</v>
-      </c>
-      <c r="F4" s="14">
-        <v>0</v>
-      </c>
-      <c r="G4" s="14">
-        <v>0</v>
-      </c>
-      <c r="H4" s="14">
-        <v>0</v>
-      </c>
-      <c r="I4" s="14">
-        <v>0</v>
-      </c>
-      <c r="J4" s="13">
-        <v>5000</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
